--- a/results/sharks/M_species_tables_full_sharks.xlsx
+++ b/results/sharks/M_species_tables_full_sharks.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -963,12 +963,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>spiny dogfish</t>
+          <t>salmon shark</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>NWP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -978,29 +978,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.057</t>
+          <t>0.159</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Saunders and McFarlane 1993</t>
+          <t>Goldman and Music 2006</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>spiny dogfish</t>
+          <t>salmon shark</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>NWP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1010,29 +1010,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jones and Geen 1977</t>
+          <t>Goldman and Music 2006</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>spiny dogfish</t>
+          <t>salmon shark</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>NWP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1042,29 +1042,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.059</t>
+          <t>0.159</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ketchen 1972</t>
+          <t>Goldman and Music 2006</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>spiny dogfish</t>
+          <t>salmon shark</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>NWP</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.078</t>
+          <t>0.172</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Smith 1998</t>
+          <t>Goldman and Music 2006</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1106,17 +1106,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>35.5</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.057</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tribuzio et al. 2010</t>
+          <t>Saunders and McFarlane 1993</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GOA</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1138,17 +1138,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.068</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tribuzio and Kruse 2012</t>
+          <t>Jones and Geen 1977</t>
         </is>
       </c>
     </row>
@@ -1160,27 +1160,560 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Age at Maturity (yr)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.059</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Ketchen 1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Age at Maturity (yr)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.078</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Smith 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Age at Maturity (yr)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>36.1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.056</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tribuzio et al. 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Age at Maturity (yr)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.056</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tribuzio and Kruse 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>WC</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Age at Maturity (yr)</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>28.0</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>0.070</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Richards 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>pacific sleeper_shark</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>pacific sleeper_shark</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>pacific sleeper_shark</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>multi_region</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>pacific sleeper_shark</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>pacific sleeper_shark</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.148</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>multi_region</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>salmon shark</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.047</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GOA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>multi_region</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Thorson</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>spiny dogfish</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>WC</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>species name</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0.106</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Thorson</t>
         </is>
       </c>
     </row>
